--- a/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业所有者权益.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业所有者权益.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1231 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>252.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.2</v>
+      </c>
       <c r="D2" t="n">
-        <v>46.2066</v>
+        <v>280</v>
       </c>
       <c r="E2" t="n">
-        <v>97.34220000000001</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>298.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>574.5</v>
+      </c>
       <c r="G2" t="n">
-        <v>3.3299</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>446.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>404.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>963.7</v>
+      </c>
       <c r="L2" t="n">
-        <v>70.8509</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>2471</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1436.9</v>
+      </c>
       <c r="N2" t="n">
-        <v>751.1002</v>
+        <v>1559.6</v>
       </c>
       <c r="O2" t="n">
-        <v>19.8235</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>261.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2243.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>266.5</v>
+      </c>
       <c r="R2" t="n">
-        <v>22.9502</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>110.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>614</v>
+      </c>
+      <c r="T2" t="n">
+        <v>44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5.4</v>
+      </c>
       <c r="V2" t="n">
-        <v>66.4838</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.62391</v>
+        <v>381.5229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9498</v>
+        <v>18.4202</v>
       </c>
       <c r="D3" t="n">
-        <v>55.97137</v>
+        <v>363.359</v>
       </c>
       <c r="E3" t="n">
-        <v>94.70432</v>
+        <v>283.5454</v>
       </c>
       <c r="F3" t="n">
-        <v>91.93454</v>
+        <v>729.6286</v>
       </c>
       <c r="G3" t="n">
-        <v>118.80531</v>
+        <v>490.1192</v>
       </c>
       <c r="H3" t="n">
-        <v>42.17861</v>
+        <v>243.7163</v>
       </c>
       <c r="I3" t="n">
-        <v>49.6079</v>
+        <v>525.4991</v>
       </c>
       <c r="J3" t="n">
-        <v>16.88066</v>
+        <v>250.4354</v>
       </c>
       <c r="K3" t="n">
-        <v>64.59572</v>
+        <v>1275.3315</v>
       </c>
       <c r="L3" t="n">
-        <v>204.76834</v>
+        <v>3201.4892</v>
       </c>
       <c r="M3" t="n">
-        <v>127.23645</v>
+        <v>1845.1715</v>
       </c>
       <c r="N3" t="n">
-        <v>658.55941</v>
+        <v>1957.7289</v>
       </c>
       <c r="O3" t="n">
-        <v>34.9117</v>
+        <v>389.5373</v>
       </c>
       <c r="P3" t="n">
-        <v>875.46514</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>2803.3286</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>339.56</v>
+      </c>
       <c r="R3" t="n">
-        <v>10.68479</v>
+        <v>132.3508</v>
       </c>
       <c r="S3" t="n">
-        <v>191.95792</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
+        <v>745.8545</v>
+      </c>
+      <c r="T3" t="n">
+        <v>54.1754</v>
+      </c>
       <c r="U3" t="n">
-        <v>0.6156</v>
+        <v>15.6336</v>
       </c>
       <c r="V3" t="n">
-        <v>40.98565</v>
+        <v>303.5901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.16453</v>
+        <v>323.5348</v>
       </c>
       <c r="C4" t="n">
-        <v>1.24654</v>
+        <v>25.05828</v>
       </c>
       <c r="D4" t="n">
-        <v>85.55473000000001</v>
+        <v>448.28839</v>
       </c>
       <c r="E4" t="n">
-        <v>136.5992</v>
+        <v>365.59384</v>
       </c>
       <c r="F4" t="n">
-        <v>161.71591</v>
+        <v>960.33228</v>
       </c>
       <c r="G4" t="n">
-        <v>191.75677</v>
+        <v>620.46705</v>
       </c>
       <c r="H4" t="n">
-        <v>62.44538</v>
+        <v>278.85392</v>
       </c>
       <c r="I4" t="n">
-        <v>94.00196</v>
+        <v>525.8563799999999</v>
       </c>
       <c r="J4" t="n">
-        <v>38.28736</v>
+        <v>300.33834</v>
       </c>
       <c r="K4" t="n">
-        <v>230.49065</v>
+        <v>1601.68846</v>
       </c>
       <c r="L4" t="n">
-        <v>618.53773</v>
+        <v>3832.73912</v>
       </c>
       <c r="M4" t="n">
-        <v>369.95852</v>
+        <v>2126.61805</v>
       </c>
       <c r="N4" t="n">
-        <v>681.4896</v>
+        <v>2235.84855</v>
       </c>
       <c r="O4" t="n">
-        <v>60.66219</v>
+        <v>491.8481</v>
       </c>
       <c r="P4" t="n">
-        <v>988.49103</v>
+        <v>3145.69043</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.974</v>
+        <v>414.36659</v>
       </c>
       <c r="R4" t="n">
-        <v>39.87348</v>
+        <v>156.435</v>
       </c>
       <c r="S4" t="n">
-        <v>267.11732</v>
+        <v>835.75541</v>
       </c>
       <c r="T4" t="n">
-        <v>20.68692</v>
+        <v>68.28379</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.99752</v>
+        <v>-25.4</v>
       </c>
       <c r="V4" t="n">
-        <v>67.00816</v>
+        <v>509.50487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.4743</v>
+        <v>499.09227</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5458</v>
+        <v>33.32545</v>
       </c>
       <c r="D5" t="n">
-        <v>98.9971</v>
+        <v>560.72968</v>
       </c>
       <c r="E5" t="n">
-        <v>148.4168</v>
+        <v>412.4424</v>
       </c>
       <c r="F5" t="n">
-        <v>187.7102</v>
+        <v>1044.04142</v>
       </c>
       <c r="G5" t="n">
-        <v>214.6959</v>
+        <v>765.96686</v>
       </c>
       <c r="H5" t="n">
-        <v>67.04259999999999</v>
+        <v>298.94973</v>
       </c>
       <c r="I5" t="n">
-        <v>122.8375</v>
+        <v>557.26332</v>
       </c>
       <c r="J5" t="n">
-        <v>51.7727</v>
+        <v>456.98225</v>
       </c>
       <c r="K5" t="n">
-        <v>331.5842</v>
+        <v>1631.11878</v>
       </c>
       <c r="L5" t="n">
-        <v>782.2347</v>
+        <v>4316.8656</v>
       </c>
       <c r="M5" t="n">
-        <v>449.0369</v>
+        <v>2580.60732</v>
       </c>
       <c r="N5" t="n">
-        <v>770.5635</v>
+        <v>2541.25749</v>
       </c>
       <c r="O5" t="n">
-        <v>77.8111</v>
+        <v>728.4857500000001</v>
       </c>
       <c r="P5" t="n">
-        <v>1115.0566</v>
+        <v>3587.0685</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.73390000000001</v>
+        <v>510.99293</v>
       </c>
       <c r="R5" t="n">
-        <v>37.2059</v>
+        <v>204.59828</v>
       </c>
       <c r="S5" t="n">
-        <v>300.2608</v>
+        <v>949.42187</v>
       </c>
       <c r="T5" t="n">
-        <v>19.3618</v>
+        <v>73.68666</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0906</v>
+        <v>-77.60944000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>85.06359999999999</v>
+        <v>640.78475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.61448</v>
+        <v>534.67137</v>
       </c>
       <c r="C6" t="n">
-        <v>5.85919</v>
+        <v>32.66536</v>
       </c>
       <c r="D6" t="n">
-        <v>113.10112</v>
+        <v>684.10309</v>
       </c>
       <c r="E6" t="n">
-        <v>145.82635</v>
+        <v>437.2269</v>
       </c>
       <c r="F6" t="n">
-        <v>242.40276</v>
+        <v>1150.68453</v>
       </c>
       <c r="G6" t="n">
-        <v>218.89566</v>
+        <v>875.6600100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>77.5107</v>
+        <v>353.89037</v>
       </c>
       <c r="I6" t="n">
-        <v>148.97281</v>
+        <v>576.58311</v>
       </c>
       <c r="J6" t="n">
-        <v>75.11727999999999</v>
+        <v>495.99799</v>
       </c>
       <c r="K6" t="n">
-        <v>311.26648</v>
+        <v>1874.52716</v>
       </c>
       <c r="L6" t="n">
-        <v>911.66158</v>
+        <v>5045.58222</v>
       </c>
       <c r="M6" t="n">
-        <v>572.82688</v>
+        <v>3054.61224</v>
       </c>
       <c r="N6" t="n">
-        <v>903.75239</v>
+        <v>2857.64807</v>
       </c>
       <c r="O6" t="n">
-        <v>103.11188</v>
+        <v>800.12947</v>
       </c>
       <c r="P6" t="n">
-        <v>1290.48774</v>
+        <v>3901.0681</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.9652</v>
+        <v>617.9088400000001</v>
       </c>
       <c r="R6" t="n">
-        <v>55.41402</v>
+        <v>236.46044</v>
       </c>
       <c r="S6" t="n">
-        <v>318.34794</v>
+        <v>956.06917</v>
       </c>
       <c r="T6" t="n">
-        <v>28.1601</v>
+        <v>83.81647</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84035</v>
+        <v>-76.15828</v>
       </c>
       <c r="V6" t="n">
-        <v>104.98742</v>
+        <v>1204.7003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.5757</v>
+        <v>610.0519</v>
       </c>
       <c r="C7" t="n">
-        <v>5.9759</v>
+        <v>36.5476</v>
       </c>
       <c r="D7" t="n">
-        <v>162.9342</v>
+        <v>789.5679</v>
       </c>
       <c r="E7" t="n">
-        <v>218.1445</v>
+        <v>495.2979</v>
       </c>
       <c r="F7" t="n">
-        <v>399.0031</v>
+        <v>1260.3382</v>
       </c>
       <c r="G7" t="n">
-        <v>319.8259</v>
+        <v>970.0239</v>
       </c>
       <c r="H7" t="n">
-        <v>113.6385</v>
+        <v>363.5993</v>
       </c>
       <c r="I7" t="n">
-        <v>278.8663</v>
+        <v>613.8101</v>
       </c>
       <c r="J7" t="n">
-        <v>118.0617</v>
+        <v>758.7962</v>
       </c>
       <c r="K7" t="n">
-        <v>900.73</v>
+        <v>2229.0583</v>
       </c>
       <c r="L7" t="n">
-        <v>1857.781</v>
+        <v>5391.5168</v>
       </c>
       <c r="M7" t="n">
-        <v>910.8416999999999</v>
+        <v>3043.0618</v>
       </c>
       <c r="N7" t="n">
-        <v>1121.9342</v>
+        <v>2952.0604</v>
       </c>
       <c r="O7" t="n">
-        <v>184.036</v>
+        <v>1087.8776</v>
       </c>
       <c r="P7" t="n">
-        <v>1620.9276</v>
+        <v>4023.201</v>
       </c>
       <c r="Q7" t="n">
-        <v>156.0587</v>
+        <v>728.0940000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>75.4122</v>
+        <v>237.3151</v>
       </c>
       <c r="S7" t="n">
-        <v>454.8666</v>
+        <v>972.2603</v>
       </c>
       <c r="T7" t="n">
-        <v>34.6662</v>
+        <v>135.7956</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0699</v>
+        <v>-46.8925</v>
       </c>
       <c r="V7" t="n">
-        <v>143.9958</v>
+        <v>826.0213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.18205</v>
+        <v>737.0017</v>
       </c>
       <c r="C8" t="n">
-        <v>12.29226</v>
+        <v>44.3602</v>
       </c>
       <c r="D8" t="n">
-        <v>203.9639</v>
+        <v>1002.2801</v>
       </c>
       <c r="E8" t="n">
-        <v>254.15617</v>
+        <v>571.4496</v>
       </c>
       <c r="F8" t="n">
-        <v>485.33688</v>
+        <v>1904.2875</v>
       </c>
       <c r="G8" t="n">
-        <v>364.26854</v>
+        <v>1077.3243</v>
       </c>
       <c r="H8" t="n">
-        <v>136.81461</v>
+        <v>593.8598</v>
       </c>
       <c r="I8" t="n">
-        <v>345.76114</v>
+        <v>1126.7872</v>
       </c>
       <c r="J8" t="n">
-        <v>125.0433</v>
+        <v>897.6147</v>
       </c>
       <c r="K8" t="n">
-        <v>1032.88768</v>
+        <v>2593.6663</v>
       </c>
       <c r="L8" t="n">
-        <v>2160.00352</v>
+        <v>6078.1483</v>
       </c>
       <c r="M8" t="n">
-        <v>1072.71662</v>
+        <v>3368.9383</v>
       </c>
       <c r="N8" t="n">
-        <v>1288.49514</v>
+        <v>3576.5455</v>
       </c>
       <c r="O8" t="n">
-        <v>250.25753</v>
+        <v>1262.3785</v>
       </c>
       <c r="P8" t="n">
-        <v>1880.52815</v>
+        <v>4696.0634</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.70111</v>
+        <v>914.0435</v>
       </c>
       <c r="R8" t="n">
-        <v>88.70041000000001</v>
+        <v>297.6935</v>
       </c>
       <c r="S8" t="n">
-        <v>543.77739</v>
+        <v>1034.0496</v>
       </c>
       <c r="T8" t="n">
-        <v>37.58786</v>
+        <v>109.7958</v>
       </c>
       <c r="U8" t="n">
-        <v>-4.00448</v>
+        <v>154.4242</v>
       </c>
       <c r="V8" t="n">
-        <v>170.56613</v>
+        <v>956.175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>252.3</v>
+        <v>547.381</v>
       </c>
       <c r="C9" t="n">
-        <v>15.2</v>
+        <v>55.061</v>
       </c>
       <c r="D9" t="n">
-        <v>280</v>
+        <v>964.21</v>
       </c>
       <c r="E9" t="n">
-        <v>298.1</v>
+        <v>588.606</v>
       </c>
       <c r="F9" t="n">
-        <v>574.5</v>
+        <v>1739.347</v>
       </c>
       <c r="G9" t="n">
-        <v>446.3</v>
+        <v>1133.222</v>
       </c>
       <c r="H9" t="n">
-        <v>187.4</v>
+        <v>623.956</v>
       </c>
       <c r="I9" t="n">
-        <v>404.8</v>
+        <v>1001.919</v>
       </c>
       <c r="J9" t="n">
-        <v>163.6</v>
+        <v>754.152</v>
       </c>
       <c r="K9" t="n">
-        <v>963.7</v>
+        <v>2750.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2471</v>
+        <v>6549.786</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.9</v>
+        <v>3651.428</v>
       </c>
       <c r="N9" t="n">
-        <v>1559.6</v>
+        <v>4790.494</v>
       </c>
       <c r="O9" t="n">
-        <v>261.4</v>
+        <v>1144.707</v>
       </c>
       <c r="P9" t="n">
-        <v>2243.3</v>
+        <v>5973.992</v>
       </c>
       <c r="Q9" t="n">
-        <v>266.5</v>
+        <v>878.862</v>
       </c>
       <c r="R9" t="n">
-        <v>110.1</v>
+        <v>304.298</v>
       </c>
       <c r="S9" t="n">
-        <v>614</v>
+        <v>1109.046</v>
       </c>
       <c r="T9" t="n">
-        <v>44</v>
+        <v>136.651</v>
       </c>
       <c r="U9" t="n">
-        <v>5.4</v>
+        <v>238.385</v>
       </c>
       <c r="V9" t="n">
-        <v>219</v>
+        <v>1001.359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.5229</v>
+        <v>502.8815</v>
       </c>
       <c r="C10" t="n">
-        <v>18.4202</v>
+        <v>62.4247</v>
       </c>
       <c r="D10" t="n">
-        <v>363.359</v>
+        <v>873.9602</v>
       </c>
       <c r="E10" t="n">
-        <v>283.5454</v>
+        <v>696.5633</v>
       </c>
       <c r="F10" t="n">
-        <v>729.6286</v>
+        <v>1587.2276</v>
       </c>
       <c r="G10" t="n">
-        <v>490.1192</v>
+        <v>1210.5818</v>
       </c>
       <c r="H10" t="n">
-        <v>243.7163</v>
+        <v>706.7408</v>
       </c>
       <c r="I10" t="n">
-        <v>525.4991</v>
+        <v>953.2821</v>
       </c>
       <c r="J10" t="n">
-        <v>250.4354</v>
+        <v>758.6319</v>
       </c>
       <c r="K10" t="n">
-        <v>1275.3315</v>
+        <v>2986.2654</v>
       </c>
       <c r="L10" t="n">
-        <v>3201.4892</v>
+        <v>6840.7084</v>
       </c>
       <c r="M10" t="n">
-        <v>1845.1715</v>
+        <v>3553.025</v>
       </c>
       <c r="N10" t="n">
-        <v>1957.7289</v>
+        <v>3367.9809</v>
       </c>
       <c r="O10" t="n">
-        <v>389.5373</v>
+        <v>1174.899</v>
       </c>
       <c r="P10" t="n">
-        <v>2803.3286</v>
+        <v>4700.5394</v>
       </c>
       <c r="Q10" t="n">
-        <v>339.56</v>
+        <v>785.4831</v>
       </c>
       <c r="R10" t="n">
-        <v>132.3508</v>
+        <v>260.9817</v>
       </c>
       <c r="S10" t="n">
-        <v>745.8545</v>
+        <v>1245.8576</v>
       </c>
       <c r="T10" t="n">
-        <v>54.1754</v>
+        <v>132.1349</v>
       </c>
       <c r="U10" t="n">
-        <v>15.6336</v>
+        <v>366.0262</v>
       </c>
       <c r="V10" t="n">
-        <v>303.5901</v>
+        <v>1265.5574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>323.5348</v>
+        <v>461.6492</v>
       </c>
       <c r="C11" t="n">
-        <v>25.05828</v>
+        <v>44.1718</v>
       </c>
       <c r="D11" t="n">
-        <v>448.28839</v>
+        <v>792.1215</v>
       </c>
       <c r="E11" t="n">
-        <v>365.59384</v>
+        <v>743.8919</v>
       </c>
       <c r="F11" t="n">
-        <v>960.33228</v>
+        <v>1229.4332</v>
       </c>
       <c r="G11" t="n">
-        <v>620.46705</v>
+        <v>1247.6623</v>
       </c>
       <c r="H11" t="n">
-        <v>278.85392</v>
+        <v>980.2828</v>
       </c>
       <c r="I11" t="n">
-        <v>525.8563799999999</v>
+        <v>634.1598</v>
       </c>
       <c r="J11" t="n">
-        <v>300.33834</v>
+        <v>770.8746</v>
       </c>
       <c r="K11" t="n">
-        <v>1601.68846</v>
+        <v>3526.5388</v>
       </c>
       <c r="L11" t="n">
-        <v>3832.73912</v>
+        <v>7415.8346</v>
       </c>
       <c r="M11" t="n">
-        <v>2126.61805</v>
+        <v>3537.9423</v>
       </c>
       <c r="N11" t="n">
-        <v>2235.84855</v>
+        <v>3660.4611</v>
       </c>
       <c r="O11" t="n">
-        <v>491.8481</v>
+        <v>1327.4993</v>
       </c>
       <c r="P11" t="n">
-        <v>3145.69043</v>
+        <v>4911.2023</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.36659</v>
+        <v>694.8553000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>156.435</v>
+        <v>261.1978</v>
       </c>
       <c r="S11" t="n">
-        <v>835.75541</v>
+        <v>1204.1166</v>
       </c>
       <c r="T11" t="n">
-        <v>68.28379</v>
+        <v>129.5404</v>
       </c>
       <c r="U11" t="n">
-        <v>-25.4</v>
+        <v>462.1669</v>
       </c>
       <c r="V11" t="n">
-        <v>509.50487</v>
+        <v>1021.6389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499.09227</v>
+        <v>406.76</v>
       </c>
       <c r="C12" t="n">
-        <v>33.32545</v>
+        <v>38.2699</v>
       </c>
       <c r="D12" t="n">
-        <v>560.72968</v>
+        <v>820.3352</v>
       </c>
       <c r="E12" t="n">
-        <v>412.4424</v>
+        <v>818.2494</v>
       </c>
       <c r="F12" t="n">
-        <v>1044.04142</v>
+        <v>1201.7208</v>
       </c>
       <c r="G12" t="n">
-        <v>765.96686</v>
+        <v>1344.7378</v>
       </c>
       <c r="H12" t="n">
-        <v>298.94973</v>
+        <v>1067.8085</v>
       </c>
       <c r="I12" t="n">
-        <v>557.26332</v>
+        <v>622.5303</v>
       </c>
       <c r="J12" t="n">
-        <v>456.98225</v>
+        <v>826.9715</v>
       </c>
       <c r="K12" t="n">
-        <v>1631.11878</v>
+        <v>3718.4821</v>
       </c>
       <c r="L12" t="n">
-        <v>4316.8656</v>
+        <v>7590.8503</v>
       </c>
       <c r="M12" t="n">
-        <v>2580.60732</v>
+        <v>3548.5204</v>
       </c>
       <c r="N12" t="n">
-        <v>2541.25749</v>
+        <v>3517.6386</v>
       </c>
       <c r="O12" t="n">
-        <v>728.4857500000001</v>
+        <v>1222.3825</v>
       </c>
       <c r="P12" t="n">
-        <v>3587.0685</v>
+        <v>4743.3103</v>
       </c>
       <c r="Q12" t="n">
-        <v>510.99293</v>
+        <v>735.9597</v>
       </c>
       <c r="R12" t="n">
-        <v>204.59828</v>
+        <v>295.9963</v>
       </c>
       <c r="S12" t="n">
-        <v>949.42187</v>
+        <v>1172.4171</v>
       </c>
       <c r="T12" t="n">
-        <v>73.68666</v>
+        <v>122.6929</v>
       </c>
       <c r="U12" t="n">
-        <v>-77.60944000000001</v>
+        <v>712.6709</v>
       </c>
       <c r="V12" t="n">
-        <v>640.78475</v>
+        <v>1093.4345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>534.67137</v>
+        <v>365.2639</v>
       </c>
       <c r="C13" t="n">
-        <v>32.66536</v>
+        <v>31.6404</v>
       </c>
       <c r="D13" t="n">
-        <v>684.10309</v>
+        <v>802.3846</v>
       </c>
       <c r="E13" t="n">
-        <v>437.2269</v>
+        <v>870.9362</v>
       </c>
       <c r="F13" t="n">
-        <v>1150.68453</v>
+        <v>1026.0809</v>
       </c>
       <c r="G13" t="n">
-        <v>875.6600100000001</v>
+        <v>1512.7283</v>
       </c>
       <c r="H13" t="n">
-        <v>353.89037</v>
+        <v>1157.3747</v>
       </c>
       <c r="I13" t="n">
-        <v>576.58311</v>
+        <v>556.7282</v>
       </c>
       <c r="J13" t="n">
-        <v>495.99799</v>
+        <v>736.5434</v>
       </c>
       <c r="K13" t="n">
-        <v>1874.52716</v>
+        <v>4136.2033</v>
       </c>
       <c r="L13" t="n">
-        <v>5045.58222</v>
+        <v>8214.975399999999</v>
       </c>
       <c r="M13" t="n">
-        <v>3054.61224</v>
+        <v>3761.0676</v>
       </c>
       <c r="N13" t="n">
-        <v>2857.64807</v>
+        <v>3730.7367</v>
       </c>
       <c r="O13" t="n">
-        <v>800.12947</v>
+        <v>1222.7763</v>
       </c>
       <c r="P13" t="n">
-        <v>3901.0681</v>
+        <v>4617.8292</v>
       </c>
       <c r="Q13" t="n">
-        <v>617.9088400000001</v>
+        <v>694.0142</v>
       </c>
       <c r="R13" t="n">
-        <v>236.46044</v>
+        <v>253.6806</v>
       </c>
       <c r="S13" t="n">
-        <v>956.06917</v>
+        <v>850.9306</v>
       </c>
       <c r="T13" t="n">
-        <v>83.81647</v>
+        <v>98.2221</v>
       </c>
       <c r="U13" t="n">
-        <v>-76.15828</v>
+        <v>825.9565</v>
       </c>
       <c r="V13" t="n">
-        <v>1204.7003</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>610.0519</v>
-      </c>
-      <c r="C14" t="n">
-        <v>36.5476</v>
-      </c>
-      <c r="D14" t="n">
-        <v>789.5679</v>
-      </c>
-      <c r="E14" t="n">
-        <v>495.2979</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1260.3382</v>
-      </c>
-      <c r="G14" t="n">
-        <v>970.0239</v>
-      </c>
-      <c r="H14" t="n">
-        <v>363.5993</v>
-      </c>
-      <c r="I14" t="n">
-        <v>613.8101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>758.7962</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2229.0583</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5391.5168</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3043.0618</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2952.0604</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1087.8776</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4023.201</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>728.0940000000001</v>
-      </c>
-      <c r="R14" t="n">
-        <v>237.3151</v>
-      </c>
-      <c r="S14" t="n">
-        <v>972.2603</v>
-      </c>
-      <c r="T14" t="n">
-        <v>135.7956</v>
-      </c>
-      <c r="U14" t="n">
-        <v>-46.8925</v>
-      </c>
-      <c r="V14" t="n">
-        <v>826.0213</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>737.0017</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44.3602</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1002.2801</v>
-      </c>
-      <c r="E15" t="n">
-        <v>571.4496</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1904.2875</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1077.3243</v>
-      </c>
-      <c r="H15" t="n">
-        <v>593.8598</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1126.7872</v>
-      </c>
-      <c r="J15" t="n">
-        <v>897.6147</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2593.6663</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6078.1483</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3368.9383</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3576.5455</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1262.3785</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4696.0634</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>914.0435</v>
-      </c>
-      <c r="R15" t="n">
-        <v>297.6935</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1034.0496</v>
-      </c>
-      <c r="T15" t="n">
-        <v>109.7958</v>
-      </c>
-      <c r="U15" t="n">
-        <v>154.4242</v>
-      </c>
-      <c r="V15" t="n">
-        <v>956.175</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>547.381</v>
-      </c>
-      <c r="C16" t="n">
-        <v>55.061</v>
-      </c>
-      <c r="D16" t="n">
-        <v>964.21</v>
-      </c>
-      <c r="E16" t="n">
-        <v>588.606</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1739.347</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1133.222</v>
-      </c>
-      <c r="H16" t="n">
-        <v>623.956</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1001.919</v>
-      </c>
-      <c r="J16" t="n">
-        <v>754.152</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2750.25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6549.786</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3651.428</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4790.494</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1144.707</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5973.992</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>878.862</v>
-      </c>
-      <c r="R16" t="n">
-        <v>304.298</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1109.046</v>
-      </c>
-      <c r="T16" t="n">
-        <v>136.651</v>
-      </c>
-      <c r="U16" t="n">
-        <v>238.385</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1001.359</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>502.8815</v>
-      </c>
-      <c r="C17" t="n">
-        <v>62.4247</v>
-      </c>
-      <c r="D17" t="n">
-        <v>873.9602</v>
-      </c>
-      <c r="E17" t="n">
-        <v>696.5633</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1587.2276</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1210.5818</v>
-      </c>
-      <c r="H17" t="n">
-        <v>706.7408</v>
-      </c>
-      <c r="I17" t="n">
-        <v>953.2821</v>
-      </c>
-      <c r="J17" t="n">
-        <v>758.6319</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2986.2654</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6840.7084</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3553.025</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3367.9809</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1174.899</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4700.5394</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>785.4831</v>
-      </c>
-      <c r="R17" t="n">
-        <v>260.9817</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1245.8576</v>
-      </c>
-      <c r="T17" t="n">
-        <v>132.1349</v>
-      </c>
-      <c r="U17" t="n">
-        <v>366.0262</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1265.5574</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>461.6492</v>
-      </c>
-      <c r="C18" t="n">
-        <v>44.1718</v>
-      </c>
-      <c r="D18" t="n">
-        <v>792.1215</v>
-      </c>
-      <c r="E18" t="n">
-        <v>743.8919</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1229.4332</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1247.6623</v>
-      </c>
-      <c r="H18" t="n">
-        <v>980.2828</v>
-      </c>
-      <c r="I18" t="n">
-        <v>634.1598</v>
-      </c>
-      <c r="J18" t="n">
-        <v>770.8746</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3526.5388</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7415.8346</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3537.9423</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3660.4611</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1327.4993</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4911.2023</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>694.8553000000001</v>
-      </c>
-      <c r="R18" t="n">
-        <v>261.1978</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1204.1166</v>
-      </c>
-      <c r="T18" t="n">
-        <v>129.5404</v>
-      </c>
-      <c r="U18" t="n">
-        <v>462.1669</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1021.6389</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>406.76</v>
-      </c>
-      <c r="C19" t="n">
-        <v>38.2699</v>
-      </c>
-      <c r="D19" t="n">
-        <v>820.3352</v>
-      </c>
-      <c r="E19" t="n">
-        <v>818.2494</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1201.7208</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1344.7378</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1067.8085</v>
-      </c>
-      <c r="I19" t="n">
-        <v>622.5303</v>
-      </c>
-      <c r="J19" t="n">
-        <v>826.9715</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3718.4821</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7590.8503</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3548.5204</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3517.6386</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1222.3825</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4743.3103</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>735.9597</v>
-      </c>
-      <c r="R19" t="n">
-        <v>295.9963</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1172.4171</v>
-      </c>
-      <c r="T19" t="n">
-        <v>122.6929</v>
-      </c>
-      <c r="U19" t="n">
-        <v>712.6709</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1093.4345</v>
+        <v>1296.2047</v>
       </c>
     </row>
   </sheetData>
